--- a/projectBookSort1.1/Backlog/Product_backlog.xlsx
+++ b/projectBookSort1.1/Backlog/Product_backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenneth/Desktop/IBA/3semester/webSpecialization/webSpecTasks/projectBookSort1.1/Backlog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B166E78A-D1CA-E648-B415-5C350AA9F264}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB98342-9D3C-564D-811F-93221734C511}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5680" yWindow="1620" windowWidth="21600" windowHeight="11380" xr2:uid="{1D807A5E-B5B4-C94B-9F79-296DA37239DA}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>PRODUCT BACKLOG TEMPLATE</t>
   </si>
@@ -106,6 +106,27 @@
   </si>
   <si>
     <t>i dont have to type the complete word before finding the decired book</t>
+  </si>
+  <si>
+    <t>#addBook</t>
+  </si>
+  <si>
+    <t>#General</t>
+  </si>
+  <si>
+    <t>#SortBooks</t>
+  </si>
+  <si>
+    <t>#FilterBooks</t>
+  </si>
+  <si>
+    <t>#searchBook</t>
+  </si>
+  <si>
+    <t>Not add a book without typing the author and title</t>
+  </si>
+  <si>
+    <t>i can't add a book without any information</t>
   </si>
 </sst>
 </file>
@@ -477,16 +498,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05A01B6-D897-4D4A-8B88-20E49C8EBA3B}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="83.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="64" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
@@ -553,6 +574,9 @@
       </c>
     </row>
     <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -567,6 +591,9 @@
       </c>
     </row>
     <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -581,6 +608,9 @@
       </c>
     </row>
     <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -595,6 +625,9 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="17" customHeight="1">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -609,6 +642,9 @@
       </c>
     </row>
     <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -623,6 +659,9 @@
       </c>
     </row>
     <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
@@ -637,6 +676,9 @@
       </c>
     </row>
     <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -648,6 +690,23 @@
       </c>
       <c r="E10">
         <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/projectBookSort1.1/Backlog/Product_backlog.xlsx
+++ b/projectBookSort1.1/Backlog/Product_backlog.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenneth/Desktop/IBA/3semester/webSpecialization/webSpecTasks/projectBookSort1.1/Backlog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB98342-9D3C-564D-811F-93221734C511}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A1389E-A6D3-FE42-8081-0BE72681A1A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5680" yWindow="1620" windowWidth="21600" windowHeight="11380" xr2:uid="{1D807A5E-B5B4-C94B-9F79-296DA37239DA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{1D807A5E-B5B4-C94B-9F79-296DA37239DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$11</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>PRODUCT BACKLOG TEMPLATE</t>
   </si>
@@ -63,12 +63,6 @@
     <t>i can sort the code and keep it organized so that its easier to read and built</t>
   </si>
   <si>
-    <t>sort the code in sections and classes</t>
-  </si>
-  <si>
-    <t>i can keep the code as simple and effective as possible</t>
-  </si>
-  <si>
     <t>User</t>
   </si>
   <si>
@@ -123,10 +117,37 @@
     <t>#searchBook</t>
   </si>
   <si>
-    <t>Not add a book without typing the author and title</t>
-  </si>
-  <si>
-    <t>i can't add a book without any information</t>
+    <t>i dont have to read every line to understand the code</t>
+  </si>
+  <si>
+    <t>sort and read the syntax comments as easy as possible</t>
+  </si>
+  <si>
+    <t>#bookList</t>
+  </si>
+  <si>
+    <t>#editBooks</t>
+  </si>
+  <si>
+    <t>edit the information given to the book added</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i can change the values of input e.g. incase of misspelling </t>
+  </si>
+  <si>
+    <t>#deleteBooks</t>
+  </si>
+  <si>
+    <t>delete a book from the libary</t>
+  </si>
+  <si>
+    <t>users cant find this book if the libary doesnt have it anymore</t>
+  </si>
+  <si>
+    <t>get a warning when not adding author and title and genre to book</t>
+  </si>
+  <si>
+    <t>i can't add a book without key information</t>
   </si>
 </sst>
 </file>
@@ -142,7 +163,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,6 +182,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -174,16 +207,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -199,6 +237,423 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3124200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D447F94-D3C1-1248-B760-C9C8C7A041F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="2959100"/>
+          <a:ext cx="9893300" cy="4622800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>- kommenter alt syntax</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> så det er let at forstå</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>- sorter syntax så det er læsbart fra bund til</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> top</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>- skriv word dokument</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>- upon adding book, clear input fields</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>- add image as cover to book</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>- sort books</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>spørgsmål: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>- generelt sætte classes på funktioner, så alle funktioner holdes samlet på en måde? kan man det? så man ved at alt fra denne linje og ned til næste afsnit er funktioner eks?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>- optimer addBook(){} if statements = er det ikke optimalt at opdele det til sin egen funktion og så kalde den i addBook? </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>(kunne jeg nøjes med "required" på hvert html element i stedet for if statements?)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>- console log when localstorage is cleared = hvor skal </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>console.warn(sessionStorage.getItem("consoleWarnAfterReload")); kaldes</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> henne, for at være i console efter reload og ikke før? skal den lille bid loades før resten af scriptet loades? </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>- upon adding book, clear inputs</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3352800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE7E5039-479A-3E49-8580-6FC1F8F56079}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10198100" y="2971800"/>
+          <a:ext cx="4546600" cy="3556000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>MANGLER HER OG NU:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> Skjul ikke sorteret array?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>- sorter på titel også ved change value i selector</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>- tilføj billede til cover på bog ud fra input fil</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -498,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05A01B6-D897-4D4A-8B88-20E49C8EBA3B}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -510,18 +965,19 @@
     <col min="3" max="3" width="66.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="64" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="4" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -532,15 +988,15 @@
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -574,143 +1030,215 @@
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" t="s">
+      <c r="A5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="17" customHeight="1">
+      <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="17" customHeight="1">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7">
-        <v>2</v>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="8">
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
+      <c r="A8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="8">
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="A10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
+      <c r="E10" s="6">
+        <v>3</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E11">
-        <v>1</v>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G16" xr:uid="{80D6975F-6C4E-46A7-AB62-2871A49CA551}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/projectBookSort1.1/Backlog/Product_backlog.xlsx
+++ b/projectBookSort1.1/Backlog/Product_backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenneth/Desktop/IBA/3semester/webSpecialization/webSpecTasks/projectBookSort1.1/Backlog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A1389E-A6D3-FE42-8081-0BE72681A1A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4285CC5A-E8E8-8245-AC8F-477DCBD2014D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{1D807A5E-B5B4-C94B-9F79-296DA37239DA}"/>
   </bookViews>
@@ -303,12 +303,8 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>- kommenter alt syntax</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t> så det er let at forstå</a:t>
+            <a:t>spørgsmål til optimering: </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -316,154 +312,15 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>- sorter syntax så det er læsbart fra bund til</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t> top</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
+            <a:t>- Hvad med generelt at sætte classes på funktioner, så alle funktioner holdes samlet på en måde? kan man det? så man ved at alt fra denne linje og ned til næste afsnit er funktioner eks, fremfor inddeling via /*******/ </a:t>
+          </a:r>
+          <a:br>
             <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t>- skriv word dokument</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
+          </a:br>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t>- upon adding book, clear input fields</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t>- add image as cover to book</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t>- sort books</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t>spørgsmål: </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t>- generelt sætte classes på funktioner, så alle funktioner holdes samlet på en måde? kan man det? så man ved at alt fra denne linje og ned til næste afsnit er funktioner eks?</a:t>
+            <a:t>- Er opdeling af script filer smartere? e.g. anvende en scriptfil til localstorage, og en til addbook, osv.?</a:t>
           </a:r>
         </a:p>
         <a:p>

--- a/projectBookSort1.1/Backlog/Product_backlog.xlsx
+++ b/projectBookSort1.1/Backlog/Product_backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenneth/Desktop/IBA/3semester/webSpecialization/webSpecTasks/projectBookSort1.1/Backlog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4285CC5A-E8E8-8245-AC8F-477DCBD2014D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36A1981-CB6F-7E4E-92F3-29F00C0D89F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{1D807A5E-B5B4-C94B-9F79-296DA37239DA}"/>
   </bookViews>
@@ -27,6 +27,30 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{FF51726F-FC36-EE4D-A0FA-42EF35E926F7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Need to be able to add the cover image selected by user, as background-image of bookPic div
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
@@ -154,13 +178,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -313,14 +343,14 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t>- Hvad med generelt at sætte classes på funktioner, så alle funktioner holdes samlet på en måde? kan man det? så man ved at alt fra denne linje og ned til næste afsnit er funktioner eks, fremfor inddeling via /*******/ </a:t>
+            <a:t>- Hvordan kan man ellers opdele sit script så det er lettere at finde frem til funktioner, uden brug af /******/ for at vise hvad der kommer herfra og ned? </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-GB" sz="1100" baseline="0"/>
           </a:br>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t>- Er opdeling af script filer smartere? e.g. anvende en scriptfil til localstorage, og en til addbook, osv.?</a:t>
+            <a:t>ville det være lettere at læse og smartere hvis man evt. opdelte scripts filer? e.g. anvende en scriptfil til localstorage, og en til addbook, osv.?</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -329,14 +359,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t>- optimer addBook(){} if statements = er det ikke optimalt at opdele det til sin egen funktion og så kalde den i addBook? </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t>(kunne jeg nøjes med "required" på hvert html element i stedet for if statements?)</a:t>
+            <a:t>- addBooks checkIfnfoLegit() og dets if statements , kunne det være undgået  "required" på hvert html element i stedet for if statements?</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -404,7 +427,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t>- upon adding book, clear inputs</a:t>
+            <a:t>- generel optimering af syntax hvor jeg gentager mig selv, eks. sort books med deres compare funktioner, hvordan kunne de skrives smartere?</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -474,26 +497,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>MANGLER HER OG NU:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t> Skjul ikke sorteret array?</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t>- sorter på titel også ved change value i selector</a:t>
+            <a:t>MANGLER:</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -503,6 +507,33 @@
           <a:r>
             <a:rPr lang="en-GB" sz="1100" baseline="0"/>
             <a:t>- tilføj billede til cover på bog ud fra input fil</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>- søg efter bog info og få forslag for hver karakter der skrives i søgefeltet</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>- slet en bog fra arrayet</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>- ændre info i en bog</a:t>
           </a:r>
           <a:endParaRPr lang="en-GB" sz="1100"/>
         </a:p>
@@ -809,11 +840,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05A01B6-D897-4D4A-8B88-20E49C8EBA3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05A01B6-D897-4D4A-8B88-20E49C8EBA3B}">
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -992,24 +1023,24 @@
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="6">
         <v>2</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="8">
-        <v>0.5</v>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1097,5 +1128,6 @@
   <autoFilter ref="A1:G16" xr:uid="{80D6975F-6C4E-46A7-AB62-2871A49CA551}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>